--- a/samples/output/excel/NVIDIA 10K 2022-2021.xlsx
+++ b/samples/output/excel/NVIDIA 10K 2022-2021.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,10 +432,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -446,17 +445,12 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>January 30, 2022</t>
+          <t>Year Ended January 30, 2022</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
           <t>January 31, 2021</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>January 26, 2020</t>
         </is>
       </c>
     </row>
@@ -468,310 +462,97 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>$       26,914</t>
+          <t>$         26,914</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>$        16,675</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>$         10,918</t>
+          <t>$         16,675</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Cost of revenue</t>
+          <t>Gross margin</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>9,439</t>
+          <t>64.9 %</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>6,279</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>4,150</t>
+          <t>62.3 %</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gross profit</t>
+          <t>Operating expenses</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>17,475</t>
+          <t>$          7,434</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>10,396</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>6,768</t>
+          <t>$          5,864</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Operating expenses</t>
+          <t>Income from operations</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>$         10,041</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>$          4,532</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Research and development</t>
+          <t>Net income</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>5,268</t>
+          <t>$          9,752</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>3,924</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>2,829</t>
+          <t>$          4,332</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Sales, general and administrative</t>
+          <t>Net income per diluted share</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>2,166</t>
+          <t>$           3.85</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>1,940</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>1,093</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       Total operating expenses</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>7,434</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>5,864</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>3,922</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Income from operations</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>10,041</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>4,532</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>2,846</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Interest income</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Interest expense</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>(236)</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>(184)</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>(52)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Other, net</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>(2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       Other income (expense), net</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>(100)</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>(123)</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Income before income tax</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>9,941</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>4,409</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>2,970</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Income tax expense</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>$          9,752</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>$          4,332</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>$          2,796</t>
+          <t>$           1.73</t>
         </is>
       </c>
     </row>
